--- a/SchedulingData/dynamic16/pso/scheduling2_9.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>249.78</v>
+        <v>257.36</v>
       </c>
       <c r="D2" t="n">
-        <v>329.28</v>
+        <v>317.26</v>
       </c>
       <c r="E2" t="n">
-        <v>15.012</v>
+        <v>12.404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>221.82</v>
+        <v>254.54</v>
       </c>
       <c r="D3" t="n">
-        <v>305.92</v>
+        <v>296.08</v>
       </c>
       <c r="E3" t="n">
-        <v>14.028</v>
+        <v>9.212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207.34</v>
+        <v>317.26</v>
       </c>
       <c r="D4" t="n">
-        <v>265.22</v>
+        <v>383.46</v>
       </c>
       <c r="E4" t="n">
-        <v>13.028</v>
+        <v>9.884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>265.22</v>
+        <v>383.46</v>
       </c>
       <c r="D5" t="n">
-        <v>340.22</v>
+        <v>459.3</v>
       </c>
       <c r="E5" t="n">
-        <v>9.128</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>209.24</v>
+        <v>459.3</v>
       </c>
       <c r="D6" t="n">
-        <v>278.7</v>
+        <v>525.96</v>
       </c>
       <c r="E6" t="n">
-        <v>9.84</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="7">
@@ -561,150 +561,150 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>234.42</v>
+        <v>525.96</v>
       </c>
       <c r="D7" t="n">
-        <v>300.96</v>
+        <v>601.0700000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>13.044</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>278.7</v>
+        <v>204.3</v>
       </c>
       <c r="D8" t="n">
-        <v>346</v>
+        <v>259.48</v>
       </c>
       <c r="E8" t="n">
-        <v>6.2</v>
+        <v>14.072</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>346</v>
+        <v>601.0700000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>402.12</v>
+        <v>650.49</v>
       </c>
       <c r="E9" t="n">
-        <v>1.728</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>402.12</v>
+        <v>260.28</v>
       </c>
       <c r="D10" t="n">
-        <v>465.66</v>
+        <v>317.06</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>9.964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>340.22</v>
+        <v>296.08</v>
       </c>
       <c r="D11" t="n">
-        <v>390.02</v>
+        <v>368.28</v>
       </c>
       <c r="E11" t="n">
-        <v>5.768</v>
+        <v>5.572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>300.96</v>
+        <v>215.38</v>
       </c>
       <c r="D12" t="n">
-        <v>362.16</v>
+        <v>280.84</v>
       </c>
       <c r="E12" t="n">
-        <v>8.564</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>329.28</v>
+        <v>650.49</v>
       </c>
       <c r="D13" t="n">
-        <v>394.16</v>
+        <v>698.4299999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>11.124</v>
+        <v>24.544</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>362.16</v>
+        <v>259.48</v>
       </c>
       <c r="D14" t="n">
-        <v>419.02</v>
+        <v>317.26</v>
       </c>
       <c r="E14" t="n">
-        <v>4.508</v>
+        <v>9.423999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -713,131 +713,131 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>390.02</v>
+        <v>236.48</v>
       </c>
       <c r="D15" t="n">
-        <v>456.12</v>
+        <v>292.68</v>
       </c>
       <c r="E15" t="n">
-        <v>2.248</v>
+        <v>10.452</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>305.92</v>
+        <v>317.06</v>
       </c>
       <c r="D16" t="n">
-        <v>342.68</v>
+        <v>363.66</v>
       </c>
       <c r="E16" t="n">
-        <v>10.992</v>
+        <v>6.924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>419.02</v>
+        <v>292.68</v>
       </c>
       <c r="D17" t="n">
-        <v>495.72</v>
+        <v>338.52</v>
       </c>
       <c r="E17" t="n">
-        <v>0.908</v>
+        <v>7.488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>495.72</v>
+        <v>338.52</v>
       </c>
       <c r="D18" t="n">
-        <v>560.9</v>
+        <v>375.28</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>4.452</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>465.66</v>
+        <v>280.84</v>
       </c>
       <c r="D19" t="n">
-        <v>504.76</v>
+        <v>353.84</v>
       </c>
       <c r="E19" t="n">
-        <v>27.28</v>
+        <v>11.736</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>342.68</v>
+        <v>375.28</v>
       </c>
       <c r="D20" t="n">
-        <v>395.44</v>
+        <v>428</v>
       </c>
       <c r="E20" t="n">
-        <v>7.856</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>504.76</v>
+        <v>428</v>
       </c>
       <c r="D21" t="n">
-        <v>573.86</v>
+        <v>523</v>
       </c>
       <c r="E21" t="n">
-        <v>23.98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -846,41 +846,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>215.78</v>
+        <v>363.66</v>
       </c>
       <c r="D22" t="n">
-        <v>309.98</v>
+        <v>419.68</v>
       </c>
       <c r="E22" t="n">
-        <v>10.712</v>
+        <v>2.452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>394.16</v>
+        <v>368.28</v>
       </c>
       <c r="D23" t="n">
-        <v>442.2</v>
+        <v>406.8</v>
       </c>
       <c r="E23" t="n">
-        <v>8.44</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>456.12</v>
+        <v>419.68</v>
       </c>
       <c r="D24" t="n">
-        <v>523.62</v>
+        <v>481.78</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -899,249 +899,249 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>523.62</v>
+        <v>481.78</v>
       </c>
       <c r="D25" t="n">
-        <v>581</v>
+        <v>534.78</v>
       </c>
       <c r="E25" t="n">
-        <v>26.932</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>560.9</v>
+        <v>317.26</v>
       </c>
       <c r="D26" t="n">
-        <v>636.4</v>
+        <v>372.44</v>
       </c>
       <c r="E26" t="n">
-        <v>26.1</v>
+        <v>5.536</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>309.98</v>
+        <v>523</v>
       </c>
       <c r="D27" t="n">
-        <v>359.98</v>
+        <v>587.24</v>
       </c>
       <c r="E27" t="n">
-        <v>7.332</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>636.4</v>
+        <v>372.44</v>
       </c>
       <c r="D28" t="n">
-        <v>680.3200000000001</v>
+        <v>420.74</v>
       </c>
       <c r="E28" t="n">
-        <v>23.328</v>
+        <v>2.816</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>359.98</v>
+        <v>420.74</v>
       </c>
       <c r="D29" t="n">
-        <v>416.58</v>
+        <v>487.01</v>
       </c>
       <c r="E29" t="n">
-        <v>3.792</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>442.2</v>
+        <v>487.01</v>
       </c>
       <c r="D30" t="n">
-        <v>485.62</v>
+        <v>575.71</v>
       </c>
       <c r="E30" t="n">
-        <v>5.228</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>395.44</v>
+        <v>534.78</v>
       </c>
       <c r="D31" t="n">
-        <v>451.54</v>
+        <v>603.58</v>
       </c>
       <c r="E31" t="n">
-        <v>5.336</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>416.58</v>
+        <v>587.24</v>
       </c>
       <c r="D32" t="n">
-        <v>500.5</v>
+        <v>626.2</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>500.5</v>
+        <v>575.71</v>
       </c>
       <c r="D33" t="n">
-        <v>560.38</v>
+        <v>621.11</v>
       </c>
       <c r="E33" t="n">
-        <v>26.192</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>485.62</v>
+        <v>626.2</v>
       </c>
       <c r="D34" t="n">
-        <v>573.4400000000001</v>
+        <v>676.2</v>
       </c>
       <c r="E34" t="n">
-        <v>2.016</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>560.38</v>
+        <v>621.11</v>
       </c>
       <c r="D35" t="n">
-        <v>629.88</v>
+        <v>693.3099999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>23.332</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>573.4400000000001</v>
+        <v>693.3099999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>646.41</v>
+        <v>724.79</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>16.712</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>646.41</v>
+        <v>406.8</v>
       </c>
       <c r="D37" t="n">
-        <v>695.77</v>
+        <v>479.08</v>
       </c>
       <c r="E37" t="n">
-        <v>27.244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,226 +1150,207 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>573.86</v>
+        <v>479.08</v>
       </c>
       <c r="D38" t="n">
-        <v>639.7</v>
+        <v>545.88</v>
       </c>
       <c r="E38" t="n">
-        <v>21.016</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>680.3200000000001</v>
+        <v>603.58</v>
       </c>
       <c r="D39" t="n">
-        <v>726.6</v>
+        <v>682.78</v>
       </c>
       <c r="E39" t="n">
-        <v>20.82</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>581</v>
+        <v>682.78</v>
       </c>
       <c r="D40" t="n">
-        <v>623.4</v>
+        <v>715.58</v>
       </c>
       <c r="E40" t="n">
-        <v>24.812</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>451.54</v>
+        <v>353.84</v>
       </c>
       <c r="D41" t="n">
-        <v>514.64</v>
+        <v>420.94</v>
       </c>
       <c r="E41" t="n">
-        <v>0.656</v>
+        <v>9.096</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>514.64</v>
+        <v>420.94</v>
       </c>
       <c r="D42" t="n">
-        <v>580.33</v>
+        <v>459.46</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>5.884</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>580.33</v>
+        <v>459.46</v>
       </c>
       <c r="D43" t="n">
-        <v>675.97</v>
+        <v>496.86</v>
       </c>
       <c r="E43" t="n">
-        <v>25.576</v>
+        <v>3.764</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>675.97</v>
+        <v>676.2</v>
       </c>
       <c r="D44" t="n">
-        <v>733.67</v>
+        <v>750.5</v>
       </c>
       <c r="E44" t="n">
-        <v>22.936</v>
+        <v>17.26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>726.6</v>
+        <v>496.86</v>
       </c>
       <c r="D45" t="n">
-        <v>794.1</v>
+        <v>538.66</v>
       </c>
       <c r="E45" t="n">
-        <v>18.18</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>629.88</v>
+        <v>538.66</v>
       </c>
       <c r="D46" t="n">
-        <v>713.24</v>
+        <v>629.71</v>
       </c>
       <c r="E46" t="n">
-        <v>19.076</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>695.77</v>
+        <v>545.88</v>
       </c>
       <c r="D47" t="n">
-        <v>744.61</v>
+        <v>588.42</v>
       </c>
       <c r="E47" t="n">
-        <v>23.5</v>
+        <v>22.856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>623.4</v>
+        <v>588.42</v>
       </c>
       <c r="D48" t="n">
-        <v>700.3</v>
+        <v>656.98</v>
       </c>
       <c r="E48" t="n">
-        <v>21.212</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>5</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>pond38</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>713.24</v>
-      </c>
-      <c r="D49" t="n">
-        <v>770.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>15.02</v>
+        <v>18.6</v>
       </c>
     </row>
   </sheetData>
